--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrah\Git\PremierProjet\ProjetOpenSource\Projet4\Starting website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EAB5C0-28FB-41C5-B6FB-4B2A6A8D010F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE856751-E1F6-43AB-8653-A41E994BEEA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="75" windowWidth="20430" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="20430" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>Catégorie</t>
   </si>
@@ -63,27 +58,12 @@
     <t>CONTENT est vide, du coup il n'y a pas de description du site, ce qui n'apparaîtra pas sur google lors d'une recherche</t>
   </si>
   <si>
-    <t>Remplir le content pour rendre le site plus pertinent</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>mettre l'url du site</t>
-  </si>
-  <si>
     <t>Lang</t>
   </si>
   <si>
-    <t>Lang n'est pas défini</t>
-  </si>
-  <si>
-    <t>donner une langue au site</t>
-  </si>
-  <si>
-    <t>Remplir la balise &lt;title&gt;</t>
-  </si>
-  <si>
     <t>Manque de caractère dans les url</t>
   </si>
   <si>
@@ -102,27 +82,15 @@
     <t>Les textes sont trop petits</t>
   </si>
   <si>
-    <t>Changer la taille des textes</t>
-  </si>
-  <si>
-    <t>Angrandir texte, les espaces entres lignes et colonnes</t>
-  </si>
-  <si>
     <t>Retour vers l'accueil compliqué</t>
   </si>
   <si>
     <t>Pas de bouton accueil</t>
   </si>
   <si>
-    <t>Mettre une flèche indiquant le retour, ou un bouton accueil</t>
-  </si>
-  <si>
     <t>Mauvais liens dans le footer</t>
   </si>
   <si>
-    <t>Mauvais affichage mobile</t>
-  </si>
-  <si>
     <t>Problème UX sur téléphones, texte trop petit, texte qui dépassent l'écran etc…</t>
   </si>
   <si>
@@ -132,9 +100,6 @@
     <t>Après avoir écrit un mauvais mail, on n'a pas de messages d'erreurs.</t>
   </si>
   <si>
-    <t>Mettre des messages d'erreurs</t>
-  </si>
-  <si>
     <t>Page html mal écrite</t>
   </si>
   <si>
@@ -168,24 +133,12 @@
     <t>Il y a un &lt;h3&gt; après un &lt;h1&gt;</t>
   </si>
   <si>
-    <t>Mettre des &lt;h2&gt; avant les &lt;h3&gt;</t>
-  </si>
-  <si>
-    <t>Structurer le code en mettant une logique dans les titres</t>
-  </si>
-  <si>
     <t>Des commandes css dans le code html</t>
   </si>
   <si>
     <t>Des balises styles dans le code html</t>
   </si>
   <si>
-    <t>Différencier CSS de HTML pour favoriser le référencement</t>
-  </si>
-  <si>
-    <t>Mettre le code css dans la page css</t>
-  </si>
-  <si>
     <t>Ligne: 70, index.html</t>
   </si>
   <si>
@@ -195,9 +148,6 @@
     <t>Ligne: 88, 94, 100, page2.html</t>
   </si>
   <si>
-    <t>Définir les aria-label pour avoir les bons messages d'érreurs ensuite</t>
-  </si>
-  <si>
     <t>Ligne: 6, index.html</t>
   </si>
   <si>
@@ -213,18 +163,9 @@
     <t>Page2.html</t>
   </si>
   <si>
-    <t>Adopter une meilleure disposition, enlever élément inutile etc…</t>
-  </si>
-  <si>
     <t>Ligne: 91-122, 139-144, index.html                                              &lt;p&gt; dans la div ligne 160, index.html etc…</t>
   </si>
   <si>
-    <t>Mettre les bons url</t>
-  </si>
-  <si>
-    <t>Changer les url</t>
-  </si>
-  <si>
     <t>Ligne: 252-286, index.html</t>
   </si>
   <si>
@@ -234,9 +175,6 @@
     <t>index.html</t>
   </si>
   <si>
-    <t>Ajouter une indication renvoyant à l'accueil</t>
-  </si>
-  <si>
     <t>Ligne, 40, 42, 248., index.html</t>
   </si>
   <si>
@@ -246,10 +184,7 @@
     <t>Ligne: 163, index.html</t>
   </si>
   <si>
-    <t>Faire une description du site dans le content</t>
-  </si>
-  <si>
-    <t>Changer les width, les font-size etc…Pour rendre le site responsive</t>
+    <t>index.html, page2.html</t>
   </si>
   <si>
     <t>style.css</t>
@@ -258,27 +193,9 @@
     <t>Structure de la page html à améliorer, lignes de codes alignés, peu d'espaces…</t>
   </si>
   <si>
-    <t>Mettre  un footer et faire l'indentation</t>
-  </si>
-  <si>
     <t>Partie du code à alléger notamment le troisème bloc</t>
   </si>
   <si>
-    <t>Alléger le bloc</t>
-  </si>
-  <si>
-    <t>Supprimer les div inutiles</t>
-  </si>
-  <si>
-    <t>Mettre un titre plus pertinent</t>
-  </si>
-  <si>
-    <t>Ajouter des termes expliquant ce qu'est le site</t>
-  </si>
-  <si>
-    <t>Ajouter des aria-label</t>
-  </si>
-  <si>
     <t>Problème prioritaire</t>
   </si>
   <si>
@@ -288,20 +205,80 @@
     <t>Problème peu prioritaire</t>
   </si>
   <si>
-    <t>Mettre le site en français car le contenu est en français</t>
-  </si>
-  <si>
-    <t>On ne sait pas si on a bien ou non, rempli le formulaire</t>
-  </si>
-  <si>
     <t>Le site n'est pas responsive</t>
+  </si>
+  <si>
+    <t>Validation W3C</t>
+  </si>
+  <si>
+    <t>Les pages html, index &amp; page2 n'ont pas la validation W3C</t>
+  </si>
+  <si>
+    <t>Bourrage de mots-clé</t>
+  </si>
+  <si>
+    <t>Mots clés répétés et dispersés sur le site, d'une taille de 1px de manière à ce que ce soit invisible pour tromper le moteur de recherche</t>
+  </si>
+  <si>
+    <t>Ligne: 42,48,248, index.html</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>donner une langue au site, Mettre le site en français car le contenu est en français</t>
+  </si>
+  <si>
+    <t>Faire une description du site dans le content.               Remplir le content pour rendre le site plus pertinent dans les recherches google</t>
+  </si>
+  <si>
+    <t>Définir titre du site.                                                           Remplir la balise &lt;title&gt;</t>
+  </si>
+  <si>
+    <t>Lang n'est pas défini, donc pas de définition du langage de la page</t>
+  </si>
+  <si>
+    <t>Changer la taille des textes, agrandir les espaces entre lignes et colonnes</t>
+  </si>
+  <si>
+    <t>Ajouter une indication renvoyant à l'accueil, en mettant une flèche par exemple</t>
+  </si>
+  <si>
+    <t>Mauvais affichage mobile, problème UX sur téléphone, texte trop petit, texte qui dépassent l'écran etc…</t>
+  </si>
+  <si>
+    <t>On ne sait pas si on a bien ou non, rempli le formulaire, manque d'indication du formulaire, mauvais emplacements</t>
+  </si>
+  <si>
+    <t>Structurer le code en mettant une logique dans les titres, mettre des &lt;h2&gt; avant des &lt;h3&gt;</t>
+  </si>
+  <si>
+    <t>Mettre un titre plus pertinent, ajouter des termes expliquant ce qu'est le site</t>
+  </si>
+  <si>
+    <t>Utiliser des synonymes des mots-clés ou des termes connexes, supprimer paragraphe inutile sous peine d'être banni par Google</t>
+  </si>
+  <si>
+    <t>Utiliser un plugin w3c validation sur visual studio code pour détecter les erreurs et les corriger pour un meilleur référencement</t>
+  </si>
+  <si>
+    <t>Alléger le bloc en supprimant les &lt;div&gt; inutiles</t>
+  </si>
+  <si>
+    <t>Différencier CSS de HTML pour favoriser le référencement en mettant le code css dans la page css</t>
+  </si>
+  <si>
+    <t>Ajouter des aria-label pour avoir les bonnes définitions des input ainsi que les bons messages d'érreurs</t>
+  </si>
+  <si>
+    <t>Mettre les bons url ou les retirer complètement pour alléger la page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,6 +321,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -383,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -464,7 +459,137 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -473,48 +598,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -525,31 +618,49 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -562,15 +673,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -579,16 +687,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -596,62 +697,111 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,10 +1020,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -883,7 +1033,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -898,7 +1048,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2"/>
@@ -923,367 +1073,405 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="D3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="D4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="B10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="29" t="s">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="F11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35" t="s">
-        <v>64</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>68</v>
-      </c>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="34" t="s">
+      <c r="B15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>69</v>
-      </c>
+      <c r="E15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:26" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>70</v>
-      </c>
+      <c r="B16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="G19" s="42"/>
     </row>
-    <row r="18" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="20" spans="1:7" ht="99.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="B20" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="42"/>
     </row>
-    <row r="19" spans="1:6" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="14" t="s">
-        <v>83</v>
+    <row r="21" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14" t="s">
-        <v>82</v>
+    <row r="23" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14" t="s">
-        <v>84</v>
+    <row r="24" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
